--- a/biology/Zoologie/Enodia_portlandia/Enodia_portlandia.xlsx
+++ b/biology/Zoologie/Enodia_portlandia/Enodia_portlandia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enodia portlandia est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae.
 </t>
@@ -511,15 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il a été nommé Enodia portlandia par Fabricius en 1781.
-Synonymes : Papilio portlandia Fabricius, 1781; Oreas andromacha Hübner, [1809]; Enodia androcardia Hübner, 1821[1].
-Noms vernaculaires
-Enodia portlandia se nomme  Pearly-eye ou Southern Pearly Eye en anglais[1].
-Sous-espèce
-Enodia portlandia floralae (Heitzman et dos Passos, 1974)
-Enodia portlandia missarkae (Heitzman et dos Passos, 1974)[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé Enodia portlandia par Fabricius en 1781.
+Synonymes : Papilio portlandia Fabricius, 1781; Oreas andromacha Hübner, ; Enodia androcardia Hübner, 1821.
+</t>
         </is>
       </c>
     </row>
@@ -544,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon au dessus marron avec une ligne submarginale de gros ocelles et des antennes orange.
-Le revers des antérieures est plus clair avec la même ligne submarginale de gros ocelles foncés pupillés ou non d'un petit point blanc et cerclés de clair[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enodia portlandia se nomme  Pearly-eye ou Southern Pearly Eye en anglais.
 </t>
         </is>
       </c>
@@ -576,17 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne au stade de chenille[2].
-L'imago vole en deux ou trois générations entre avril et octobre[3].
-Plantes hôtes
-Les plantes hôtes de ses chenilles sont  Arundinaria gigantea et cela reste à vérifier Arundinaria tecta[1],[2].
-</t>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Enodia portlandia floralae (Heitzman et dos Passos, 1974)
+Enodia portlandia missarkae (Heitzman et dos Passos, 1974).</t>
         </is>
       </c>
     </row>
@@ -611,16 +628,197 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon au dessus marron avec une ligne submarginale de gros ocelles et des antennes orange.
+Le revers des antérieures est plus clair avec la même ligne submarginale de gros ocelles foncés pupillés ou non d'un petit point blanc et cerclés de clair.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Enodia_portlandia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enodia_portlandia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne au stade de chenille.
+L'imago vole en deux ou trois générations entre avril et octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Enodia_portlandia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enodia_portlandia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de ses chenilles sont  Arundinaria gigantea et cela reste à vérifier Arundinaria tecta,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Enodia_portlandia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enodia_portlandia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans l'est de l'Amérique du Nord, dans tous les états de l'est des USA de l'Oklahoma au Texas à la Caroline du Nord et la Floride[1],[2].
-Biotope
-Il réside dans les forêts humides où pousse la plante hôte de sa chenille.
-Protection
-Leur protection nécessite la protection de leur habitat, les forêts humides[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans l'est de l'Amérique du Nord, dans tous les états de l'est des USA de l'Oklahoma au Texas à la Caroline du Nord et la Floride,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Enodia_portlandia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enodia_portlandia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les forêts humides où pousse la plante hôte de sa chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Enodia_portlandia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enodia_portlandia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur protection nécessite la protection de leur habitat, les forêts humides.
 </t>
         </is>
       </c>
